--- a/biology/Botanique/Chlamydomonadaceae/Chlamydomonadaceae.xlsx
+++ b/biology/Botanique/Chlamydomonadaceae/Chlamydomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlamydomonadaceae sont une famille d’algues vertes de l’ordre des Chlamydomonadales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Chlamydomonas, composé du préfixe "Chlamy-", « cape, manteau » (de Chlamyde manteau porté en Grèce antique), et du suffixe "-monas", « monade, flagellé », littéralement « flagellé à cape »[2], le suffixe venant du grec μόνας / mónas, « seul, solitaire, isolé ». En effet Ehrenberg qui décrivit le genre nomme ce type de cellules des « Monas »[note 1] pour souligner leur caractère solitaire (sans doute par opposition aux cellules formant des colonies) et il explique la référence au manteau (chlamy) par ces mots « La division de cette monade ne se fait pas comme les autres, mais au sein d'une peau très transparente[3]. », le nom de genre signifiant donc « monade à peau » ou « monade à cape » ou « monade à manteau ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Chlamydomonas, composé du préfixe "Chlamy-", « cape, manteau » (de Chlamyde manteau porté en Grèce antique), et du suffixe "-monas", « monade, flagellé », littéralement « flagellé à cape », le suffixe venant du grec μόνας / mónas, « seul, solitaire, isolé ». En effet Ehrenberg qui décrivit le genre nomme ce type de cellules des « Monas »[note 1] pour souligner leur caractère solitaire (sans doute par opposition aux cellules formant des colonies) et il explique la référence au manteau (chlamy) par ces mots « La division de cette monade ne se fait pas comme les autres, mais au sein d'une peau très transparente. », le nom de genre signifiant donc « monade à peau » ou « monade à cape » ou « monade à manteau ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (12 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (12 août 2017) :
 Agloë Pascher
 Brachiomonas Bohlin
 Carteria Diesing
@@ -591,7 +607,7 @@
 Tetratoma Buetschli
 Tussetia Pascher
 Vitreochlamys Batko
-Selon BioLib                    (12 août 2017)[4] :
+Selon BioLib                    (12 août 2017) :
 Brachiomonas Bohlin
 Carteria Diesing
 Chlamydomonas Ehrenberg
@@ -599,12 +615,12 @@
 Chloromonas
 Polytoma Ehrenberg
 Spermatozopsis O.A. Korshikov
-Selon Catalogue of Life                                   (12 août 2017)[5] :
+Selon Catalogue of Life                                   (12 août 2017) :
 Brachiomonas
 Carteria
 Gloeomonas
 Oltmannsiella
-Selon ITIS      (12 août 2017)[6] :
+Selon ITIS      (12 août 2017) :
 Brachiomonas Bohlin, 1897
 Carteria Diesing
 Chlainomonas H. R. Christen, 1959
@@ -623,7 +639,7 @@
 Sphaerellopsis Korschikoff, 1925
 Sphenochloris
 Spirogonium Pascher, 1927
-Selon World Register of Marine Species                               (12 août 2017)[7] :
+Selon World Register of Marine Species                               (12 août 2017) :
 Agloë Pascher, 1912
 Brachiomonas Bohlin, 1897
 Carteria Diesing, 1866
